--- a/data/trans_camb/P34A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,92; -4,27</t>
+          <t>-14,44; -4,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,13; -0,96</t>
+          <t>-12,04; -0,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,06; -3,9</t>
+          <t>-17,77; -3,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,35; -6,77</t>
+          <t>-19,74; -7,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 2,02</t>
+          <t>-10,79; 1,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,43; 1,91</t>
+          <t>-15,65; 0,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,67; -7,19</t>
+          <t>-15,63; -7,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,9; -0,94</t>
+          <t>-9,69; -1,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,08; -3,57</t>
+          <t>-15,56; -3,73</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-52,62; -18,17</t>
+          <t>-51,7; -18,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-42,95; -4,02</t>
+          <t>-43,99; -2,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-65,54; -14,1</t>
+          <t>-64,69; -12,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-42,84; -17,21</t>
+          <t>-42,49; -17,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,68; 5,52</t>
+          <t>-23,86; 4,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,31; 4,96</t>
+          <t>-35,5; 1,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-43,62; -23,12</t>
+          <t>-43,56; -21,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,1; -3,01</t>
+          <t>-27,59; -3,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-43,27; -11,04</t>
+          <t>-43,72; -11,06</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,08; -11,97</t>
+          <t>-21,84; -11,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,23; -3,97</t>
+          <t>-15,11; -4,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 5,15</t>
+          <t>-8,32; 5,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,28; -11,35</t>
+          <t>-22,38; -11,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,21; -2,06</t>
+          <t>-13,49; -2,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,22; -3,05</t>
+          <t>-15,21; -3,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-20,66; -12,91</t>
+          <t>-20,37; -13,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,62; -4,9</t>
+          <t>-12,02; -4,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,86; -0,66</t>
+          <t>-9,71; -0,64</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,33; -35,69</t>
+          <t>-55,96; -35,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-36,94; -11,59</t>
+          <t>-38,93; -13,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 14,62</t>
+          <t>-21,6; 15,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-47,16; -26,27</t>
+          <t>-46,62; -26,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,7; -4,8</t>
+          <t>-28,71; -4,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,31; -6,99</t>
+          <t>-32,86; -6,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,75; -34,2</t>
+          <t>-48,35; -34,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,62; -12,4</t>
+          <t>-28,82; -11,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-23,13; -1,56</t>
+          <t>-23,26; -1,63</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-24,48; -13,59</t>
+          <t>-24,86; -14,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,56; -3,4</t>
+          <t>-15,33; -3,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,17; -4,39</t>
+          <t>-17,1; -4,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,46; -11,43</t>
+          <t>-21,77; -11,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,36; -4,44</t>
+          <t>-15,57; -4,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,7; -1,43</t>
+          <t>-11,44; -0,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-21,45; -14,53</t>
+          <t>-21,11; -13,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-13,36; -5,62</t>
+          <t>-13,28; -5,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,39; -4,67</t>
+          <t>-12,33; -4,69</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-52,05; -32,5</t>
+          <t>-52,08; -33,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,82; -8,02</t>
+          <t>-32,46; -8,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-34,49; -10,41</t>
+          <t>-35,97; -10,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,85; -26,46</t>
+          <t>-46,06; -27,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,34; -10,68</t>
+          <t>-32,62; -11,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,25; -3,31</t>
+          <t>-24,34; -1,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-46,27; -33,76</t>
+          <t>-45,63; -32,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-28,85; -13,03</t>
+          <t>-28,96; -13,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-26,94; -10,97</t>
+          <t>-26,65; -11,0</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-29,7; -17,0</t>
+          <t>-30,3; -18,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,86; -4,55</t>
+          <t>-16,98; -5,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-25,17; -10,91</t>
+          <t>-25,07; -10,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-21,8; -9,59</t>
+          <t>-21,92; -10,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 0,45</t>
+          <t>-11,58; -0,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,32; -1,91</t>
+          <t>-13,32; -2,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-24,38; -16,29</t>
+          <t>-24,05; -15,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,68; -4,28</t>
+          <t>-12,8; -4,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,97; -8,21</t>
+          <t>-17,61; -8,18</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-57,08; -37,43</t>
+          <t>-57,7; -38,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-32,01; -9,65</t>
+          <t>-32,05; -11,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-49,3; -23,99</t>
+          <t>-49,22; -23,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-45,85; -23,01</t>
+          <t>-46,16; -24,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,22; 0,84</t>
+          <t>-24,58; -0,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-28,02; -4,76</t>
+          <t>-27,79; -5,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-49,96; -36,36</t>
+          <t>-49,22; -35,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-25,93; -9,89</t>
+          <t>-26,4; -9,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-37,44; -18,68</t>
+          <t>-36,05; -18,31</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-32,12; -18,97</t>
+          <t>-31,9; -18,37</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-21,5; -7,58</t>
+          <t>-21,87; -7,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,84; -4,39</t>
+          <t>-17,47; -4,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-24,96; -11,85</t>
+          <t>-24,43; -11,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 9,4</t>
+          <t>-4,78; 8,91</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,68; -0,34</t>
+          <t>-12,17; -0,6</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-26,74; -17,1</t>
+          <t>-26,68; -16,96</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,63; -1,01</t>
+          <t>-10,95; -0,87</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,68; -4,1</t>
+          <t>-13,12; -4,48</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-60,17; -40,74</t>
+          <t>-60,32; -39,74</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-40,26; -16,05</t>
+          <t>-40,72; -17,44</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-32,83; -9,48</t>
+          <t>-32,54; -11,32</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-52,98; -29,42</t>
+          <t>-52,32; -28,7</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 24,04</t>
+          <t>-10,14; 21,61</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-24,79; -0,92</t>
+          <t>-25,63; -1,54</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-54,22; -38,47</t>
+          <t>-53,94; -37,93</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-21,74; -2,37</t>
+          <t>-21,89; -2,03</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-25,9; -9,6</t>
+          <t>-26,49; -10,18</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-24,7; -13,48</t>
+          <t>-25,48; -13,29</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 6,11</t>
+          <t>-5,12; 6,21</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,18; -2,29</t>
+          <t>-12,96; -2,76</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,17; -6,49</t>
+          <t>-17,34; -6,9</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 8,84</t>
+          <t>-2,02; 8,85</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-22,95; -1,81</t>
+          <t>-22,59; -2,02</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-19,33; -10,89</t>
+          <t>-19,36; -10,74</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 6,18</t>
+          <t>-1,82; 6,28</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-18,59; -3,95</t>
+          <t>-17,31; -3,9</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-53,51; -33,54</t>
+          <t>-54,85; -32,74</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 15,19</t>
+          <t>-10,98; 15,51</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-28,05; -5,37</t>
+          <t>-27,51; -6,86</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-30,6; -12,62</t>
+          <t>-30,58; -13,28</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 16,76</t>
+          <t>-3,43; 17,3</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-40,65; -3,73</t>
+          <t>-41,55; -3,87</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-37,6; -23,42</t>
+          <t>-37,92; -22,63</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 13,01</t>
+          <t>-3,52; 13,28</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-36,41; -8,05</t>
+          <t>-33,76; -8,21</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-20,84; -16,34</t>
+          <t>-20,95; -16,2</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,63; -4,87</t>
+          <t>-9,81; -5,05</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-11,22; -5,95</t>
+          <t>-11,13; -5,8</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-17,47; -12,86</t>
+          <t>-17,38; -12,73</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,72; -0,72</t>
+          <t>-5,92; -0,99</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-11,15; -4,49</t>
+          <t>-10,9; -4,64</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-18,42; -15,26</t>
+          <t>-18,44; -15,26</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-7,07; -3,6</t>
+          <t>-7,08; -3,63</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-9,67; -5,72</t>
+          <t>-9,87; -5,68</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-49,31; -40,96</t>
+          <t>-49,55; -40,67</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-22,76; -12,18</t>
+          <t>-23,38; -12,72</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-26,35; -15,03</t>
+          <t>-26,55; -14,55</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-37,11; -28,88</t>
+          <t>-36,99; -28,37</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-12,07; -1,64</t>
+          <t>-12,6; -2,18</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-23,78; -9,94</t>
+          <t>-23,25; -10,27</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-41,4; -35,65</t>
+          <t>-41,41; -35,57</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-15,82; -8,36</t>
+          <t>-15,97; -8,48</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-22,3; -13,37</t>
+          <t>-22,39; -13,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P34A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,44; -4,22</t>
+          <t>-14,9; -4,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,04; -0,53</t>
+          <t>-11,87; -0,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,77; -3,23</t>
+          <t>-17,46; -3,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,74; -7,06</t>
+          <t>-19,75; -6,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 1,95</t>
+          <t>-11,07; 2,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 0,46</t>
+          <t>-15,39; 1,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,63; -7,03</t>
+          <t>-15,92; -7,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,69; -1,2</t>
+          <t>-9,71; -0,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,56; -3,73</t>
+          <t>-14,78; -3,42</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-51,7; -18,65</t>
+          <t>-52,2; -19,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-43,99; -2,73</t>
+          <t>-42,63; -3,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-64,69; -12,54</t>
+          <t>-65,12; -12,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-42,49; -17,6</t>
+          <t>-43,77; -17,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,86; 4,81</t>
+          <t>-24,29; 6,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,5; 1,69</t>
+          <t>-34,29; 4,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-43,56; -21,89</t>
+          <t>-44,0; -22,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,59; -3,58</t>
+          <t>-27,11; -2,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-43,72; -11,06</t>
+          <t>-42,35; -11,78</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,84; -11,95</t>
+          <t>-21,57; -12,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,11; -4,57</t>
+          <t>-14,89; -4,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 5,64</t>
+          <t>-8,36; 5,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,38; -11,27</t>
+          <t>-22,35; -11,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,49; -2,13</t>
+          <t>-13,7; -1,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,21; -3,04</t>
+          <t>-15,83; -2,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-20,37; -13,17</t>
+          <t>-20,53; -13,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,02; -4,12</t>
+          <t>-12,68; -4,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,71; -0,64</t>
+          <t>-9,58; -0,47</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,96; -35,4</t>
+          <t>-55,27; -35,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-38,93; -13,57</t>
+          <t>-38,45; -12,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,6; 15,61</t>
+          <t>-21,99; 16,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,62; -26,49</t>
+          <t>-46,65; -27,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,71; -4,91</t>
+          <t>-28,57; -4,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,86; -6,98</t>
+          <t>-33,77; -6,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,35; -34,17</t>
+          <t>-48,59; -34,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,82; -11,05</t>
+          <t>-30,13; -12,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-23,26; -1,63</t>
+          <t>-23,34; -1,28</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-24,86; -14,2</t>
+          <t>-24,38; -13,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,33; -3,52</t>
+          <t>-14,64; -3,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,1; -4,56</t>
+          <t>-16,8; -4,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,77; -11,42</t>
+          <t>-21,58; -11,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,57; -4,86</t>
+          <t>-15,17; -4,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,44; -0,71</t>
+          <t>-11,7; -0,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-21,11; -13,8</t>
+          <t>-21,44; -14,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-13,28; -5,34</t>
+          <t>-13,29; -5,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,33; -4,69</t>
+          <t>-12,71; -4,56</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-52,08; -33,81</t>
+          <t>-51,76; -33,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-32,46; -8,56</t>
+          <t>-30,8; -8,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-35,97; -10,71</t>
+          <t>-36,29; -10,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-46,06; -27,24</t>
+          <t>-45,75; -27,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,62; -11,74</t>
+          <t>-32,41; -10,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,34; -1,66</t>
+          <t>-25,0; -2,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-45,63; -32,59</t>
+          <t>-46,14; -33,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-28,96; -13,01</t>
+          <t>-28,82; -13,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-26,65; -11,0</t>
+          <t>-27,24; -10,57</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-30,3; -18,23</t>
+          <t>-29,95; -18,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,98; -5,4</t>
+          <t>-17,56; -5,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-25,07; -10,85</t>
+          <t>-25,12; -11,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-21,92; -10,21</t>
+          <t>-21,25; -9,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,58; -0,14</t>
+          <t>-12,04; -0,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,32; -2,42</t>
+          <t>-13,67; -2,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-24,05; -15,7</t>
+          <t>-24,34; -16,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,8; -4,36</t>
+          <t>-13,08; -4,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,61; -8,18</t>
+          <t>-17,48; -8,14</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-57,7; -38,95</t>
+          <t>-57,34; -40,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-32,05; -11,43</t>
+          <t>-33,15; -11,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-49,22; -23,86</t>
+          <t>-49,57; -24,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-46,16; -24,67</t>
+          <t>-45,19; -24,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,58; -0,24</t>
+          <t>-25,57; -0,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,79; -5,85</t>
+          <t>-28,76; -5,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-49,22; -35,16</t>
+          <t>-49,67; -35,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-26,4; -9,88</t>
+          <t>-26,58; -10,22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-36,05; -18,31</t>
+          <t>-36,01; -18,22</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-31,9; -18,37</t>
+          <t>-32,25; -19,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-21,87; -7,94</t>
+          <t>-21,16; -7,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,47; -4,97</t>
+          <t>-17,29; -5,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-24,43; -11,92</t>
+          <t>-25,08; -11,85</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 8,91</t>
+          <t>-4,87; 9,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-12,17; -0,6</t>
+          <t>-11,87; -0,16</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-26,68; -16,96</t>
+          <t>-26,59; -17,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,95; -0,87</t>
+          <t>-10,48; -1,14</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-13,12; -4,48</t>
+          <t>-13,04; -4,53</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-60,32; -39,74</t>
+          <t>-60,22; -40,43</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-40,72; -17,44</t>
+          <t>-39,8; -16,93</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-32,54; -11,32</t>
+          <t>-32,13; -11,13</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-52,32; -28,7</t>
+          <t>-52,86; -29,18</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 21,61</t>
+          <t>-10,06; 22,41</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-25,63; -1,54</t>
+          <t>-25,07; -0,42</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-53,94; -37,93</t>
+          <t>-53,55; -38,75</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-21,89; -2,03</t>
+          <t>-21,38; -2,75</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-26,49; -10,18</t>
+          <t>-26,34; -10,15</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-25,48; -13,29</t>
+          <t>-25,5; -13,71</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 6,21</t>
+          <t>-5,11; 6,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-12,96; -2,76</t>
+          <t>-12,91; -2,22</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,34; -6,9</t>
+          <t>-17,24; -6,61</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 8,85</t>
+          <t>-2,15; 8,73</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-22,59; -2,02</t>
+          <t>-25,33; -1,62</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-19,36; -10,74</t>
+          <t>-19,47; -11,46</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 6,28</t>
+          <t>-1,63; 6,13</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-17,31; -3,9</t>
+          <t>-16,65; -4,1</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-54,85; -32,74</t>
+          <t>-54,88; -33,28</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 15,51</t>
+          <t>-11,1; 16,29</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-27,51; -6,86</t>
+          <t>-27,75; -5,58</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-30,58; -13,28</t>
+          <t>-30,14; -12,28</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 17,3</t>
+          <t>-3,76; 16,9</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-41,55; -3,87</t>
+          <t>-44,75; -2,95</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-37,92; -22,63</t>
+          <t>-38,06; -23,97</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 13,28</t>
+          <t>-3,13; 13,13</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-33,76; -8,21</t>
+          <t>-32,93; -8,53</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-20,95; -16,2</t>
+          <t>-20,95; -16,49</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,81; -5,05</t>
+          <t>-9,63; -4,89</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-11,13; -5,8</t>
+          <t>-10,97; -5,79</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-17,38; -12,73</t>
+          <t>-17,68; -12,94</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,92; -0,99</t>
+          <t>-5,95; -0,92</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-10,9; -4,64</t>
+          <t>-10,93; -4,68</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-18,44; -15,26</t>
+          <t>-18,35; -15,17</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-7,08; -3,63</t>
+          <t>-6,91; -3,46</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-9,87; -5,68</t>
+          <t>-9,96; -5,6</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-49,55; -40,67</t>
+          <t>-49,49; -41,11</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-23,38; -12,72</t>
+          <t>-22,9; -12,4</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-26,55; -14,55</t>
+          <t>-26,14; -14,65</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-36,99; -28,37</t>
+          <t>-37,27; -28,63</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-12,6; -2,18</t>
+          <t>-12,36; -1,92</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-23,25; -10,27</t>
+          <t>-23,92; -10,39</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-41,41; -35,57</t>
+          <t>-41,33; -35,51</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-15,97; -8,48</t>
+          <t>-15,62; -8,12</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-22,39; -13,29</t>
+          <t>-22,52; -13,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P34A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,9; -4,5</t>
+          <t>-14,92; -4,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,87; -0,62</t>
+          <t>-12,13; -0,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,46; -3,49</t>
+          <t>-18,06; -3,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,75; -6,95</t>
+          <t>-19,35; -6,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 2,59</t>
+          <t>-10,81; 2,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 1,57</t>
+          <t>-15,43; 1,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,92; -7,14</t>
+          <t>-15,67; -7,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,71; -0,85</t>
+          <t>-9,9; -0,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-14,78; -3,42</t>
+          <t>-15,08; -3,57</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-52,2; -19,51</t>
+          <t>-52,62; -18,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-42,63; -3,28</t>
+          <t>-42,95; -4,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-65,12; -12,37</t>
+          <t>-65,54; -14,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,77; -17,83</t>
+          <t>-42,84; -17,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,29; 6,93</t>
+          <t>-23,68; 5,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,29; 4,62</t>
+          <t>-34,31; 4,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-44,0; -22,63</t>
+          <t>-43,62; -23,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,11; -2,88</t>
+          <t>-28,1; -3,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-42,35; -11,78</t>
+          <t>-43,27; -11,04</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,57; -12,19</t>
+          <t>-21,08; -11,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,89; -4,11</t>
+          <t>-14,23; -3,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 5,79</t>
+          <t>-8,34; 5,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,35; -11,59</t>
+          <t>-22,28; -11,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,7; -1,93</t>
+          <t>-13,21; -2,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,83; -2,61</t>
+          <t>-15,22; -3,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-20,53; -13,17</t>
+          <t>-20,66; -12,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,68; -4,95</t>
+          <t>-12,62; -4,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,58; -0,47</t>
+          <t>-9,86; -0,66</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,27; -35,6</t>
+          <t>-55,33; -35,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-38,45; -12,2</t>
+          <t>-36,94; -11,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,99; 16,97</t>
+          <t>-21,92; 14,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,65; -27,54</t>
+          <t>-47,16; -26,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,57; -4,3</t>
+          <t>-27,7; -4,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,77; -6,43</t>
+          <t>-32,31; -6,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,59; -34,4</t>
+          <t>-48,75; -34,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,13; -12,94</t>
+          <t>-29,62; -12,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-23,34; -1,28</t>
+          <t>-23,13; -1,56</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-24,38; -13,64</t>
+          <t>-24,48; -13,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,64; -3,81</t>
+          <t>-14,56; -3,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,8; -4,05</t>
+          <t>-16,17; -4,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,58; -11,55</t>
+          <t>-21,46; -11,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,17; -4,58</t>
+          <t>-15,36; -4,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,7; -0,78</t>
+          <t>-11,7; -1,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-21,44; -14,23</t>
+          <t>-21,45; -14,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-13,29; -5,77</t>
+          <t>-13,36; -5,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,71; -4,56</t>
+          <t>-12,39; -4,67</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-51,76; -33,22</t>
+          <t>-52,05; -32,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,8; -8,66</t>
+          <t>-30,82; -8,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-36,29; -10,31</t>
+          <t>-34,49; -10,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-45,75; -27,47</t>
+          <t>-44,85; -26,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,41; -10,97</t>
+          <t>-32,34; -10,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,0; -2,01</t>
+          <t>-24,25; -3,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-46,14; -33,4</t>
+          <t>-46,27; -33,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-28,82; -13,58</t>
+          <t>-28,85; -13,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-27,24; -10,57</t>
+          <t>-26,94; -10,97</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-29,95; -18,46</t>
+          <t>-29,7; -17,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-17,56; -5,2</t>
+          <t>-16,86; -4,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-25,12; -11,0</t>
+          <t>-25,17; -10,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-21,25; -9,76</t>
+          <t>-21,8; -9,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,04; -0,05</t>
+          <t>-11,64; 0,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,67; -2,08</t>
+          <t>-13,32; -1,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-24,34; -16,21</t>
+          <t>-24,38; -16,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-13,08; -4,52</t>
+          <t>-12,68; -4,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,48; -8,14</t>
+          <t>-17,97; -8,21</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-57,34; -40,26</t>
+          <t>-57,08; -37,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-33,15; -11,31</t>
+          <t>-32,01; -9,65</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-49,57; -24,18</t>
+          <t>-49,3; -23,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-45,19; -24,02</t>
+          <t>-45,85; -23,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,57; -0,22</t>
+          <t>-25,22; 0,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-28,76; -5,46</t>
+          <t>-28,02; -4,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-49,67; -35,89</t>
+          <t>-49,96; -36,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-26,58; -10,22</t>
+          <t>-25,93; -9,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-36,01; -18,22</t>
+          <t>-37,44; -18,68</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-32,25; -19,35</t>
+          <t>-32,12; -18,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-21,16; -7,72</t>
+          <t>-21,5; -7,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,29; -5,13</t>
+          <t>-17,84; -4,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-25,08; -11,85</t>
+          <t>-24,96; -11,85</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 9,11</t>
+          <t>-4,51; 9,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,87; -0,16</t>
+          <t>-11,68; -0,34</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-26,59; -17,16</t>
+          <t>-26,74; -17,1</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,48; -1,14</t>
+          <t>-10,63; -1,01</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-13,04; -4,53</t>
+          <t>-12,68; -4,1</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-60,22; -40,43</t>
+          <t>-60,17; -40,74</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-39,8; -16,93</t>
+          <t>-40,26; -16,05</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-32,13; -11,13</t>
+          <t>-32,83; -9,48</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-52,86; -29,18</t>
+          <t>-52,98; -29,42</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 22,41</t>
+          <t>-9,81; 24,04</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-25,07; -0,42</t>
+          <t>-24,79; -0,92</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-53,55; -38,75</t>
+          <t>-54,22; -38,47</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-21,38; -2,75</t>
+          <t>-21,74; -2,37</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-26,34; -10,15</t>
+          <t>-25,9; -9,6</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-25,5; -13,71</t>
+          <t>-24,7; -13,48</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 6,57</t>
+          <t>-5,72; 6,11</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-12,91; -2,22</t>
+          <t>-13,18; -2,29</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,24; -6,61</t>
+          <t>-17,17; -6,49</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 8,73</t>
+          <t>-2,49; 8,84</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-25,33; -1,62</t>
+          <t>-22,95; -1,81</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-19,47; -11,46</t>
+          <t>-19,33; -10,89</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 6,13</t>
+          <t>-2,02; 6,18</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-16,65; -4,1</t>
+          <t>-18,59; -3,95</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-54,88; -33,28</t>
+          <t>-53,51; -33,54</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 16,29</t>
+          <t>-12,38; 15,19</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-27,75; -5,58</t>
+          <t>-28,05; -5,37</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-30,14; -12,28</t>
+          <t>-30,6; -12,62</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 16,9</t>
+          <t>-4,42; 16,76</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-44,75; -2,95</t>
+          <t>-40,65; -3,73</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-38,06; -23,97</t>
+          <t>-37,6; -23,42</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 13,13</t>
+          <t>-3,84; 13,01</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-32,93; -8,53</t>
+          <t>-36,41; -8,05</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-20,95; -16,49</t>
+          <t>-20,84; -16,34</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,63; -4,89</t>
+          <t>-9,63; -4,87</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-10,97; -5,79</t>
+          <t>-11,22; -5,95</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-17,68; -12,94</t>
+          <t>-17,47; -12,86</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,95; -0,92</t>
+          <t>-5,72; -0,72</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-10,93; -4,68</t>
+          <t>-11,15; -4,49</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-18,35; -15,17</t>
+          <t>-18,42; -15,26</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,91; -3,46</t>
+          <t>-7,07; -3,6</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-9,96; -5,6</t>
+          <t>-9,67; -5,72</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-49,49; -41,11</t>
+          <t>-49,31; -40,96</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-22,9; -12,4</t>
+          <t>-22,76; -12,18</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-26,14; -14,65</t>
+          <t>-26,35; -15,03</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-37,27; -28,63</t>
+          <t>-37,11; -28,88</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-12,36; -1,92</t>
+          <t>-12,07; -1,64</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-23,92; -10,39</t>
+          <t>-23,78; -9,94</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-41,33; -35,51</t>
+          <t>-41,4; -35,65</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-15,62; -8,12</t>
+          <t>-15,82; -8,36</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-22,52; -13,08</t>
+          <t>-22,3; -13,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P34A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-11,63</t>
+          <t>-10,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,25</t>
+          <t>-5,82</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-9,51</t>
+          <t>-9,48</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,06; -3,9</t>
+          <t>-17,64; -2,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,43; 1,91</t>
+          <t>-14,39; 3,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,08; -3,57</t>
+          <t>-15,24; -3,11</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-45,78%</t>
+          <t>-43,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-17,04%</t>
+          <t>-13,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-28,2%</t>
+          <t>-28,12%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-65,54; -14,1</t>
+          <t>-64,15; -8,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,31; 4,96</t>
+          <t>-31,65; 8,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-43,27; -11,04</t>
+          <t>-43,82; -9,73</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,13</t>
+          <t>-12,4</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,18</t>
+          <t>-6,47</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 5,15</t>
+          <t>-7,19; 6,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,22; -3,05</t>
+          <t>-24,66; -5,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,86; -0,66</t>
+          <t>-14,74; -1,29</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,49%</t>
+          <t>-2,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-20,38%</t>
+          <t>-27,67%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-12,87%</t>
+          <t>-16,08%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 14,62</t>
+          <t>-19,14; 19,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,31; -6,99</t>
+          <t>-52,5; -12,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-23,13; -1,56</t>
+          <t>-35,23; -3,24</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-10,66</t>
+          <t>-9,97</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,31</t>
+          <t>-5,71</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-8,44</t>
+          <t>-7,83</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,17; -4,39</t>
+          <t>-15,54; -3,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,7; -1,43</t>
+          <t>-11,15; -0,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,39; -4,67</t>
+          <t>-11,77; -3,99</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-24,03%</t>
+          <t>-22,49%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-14,15%</t>
+          <t>-12,79%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-18,96%</t>
+          <t>-17,6%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-34,49; -10,41</t>
+          <t>-32,91; -8,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,25; -3,31</t>
+          <t>-23,02; -1,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-26,94; -10,97</t>
+          <t>-25,24; -9,29</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-17,21</t>
+          <t>-24,09</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-7,92</t>
+          <t>-5,51</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-12,56</t>
+          <t>-15,55</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-25,17; -10,91</t>
+          <t>-41,19; -12,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,32; -1,91</t>
+          <t>-11,48; 3,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,97; -8,21</t>
+          <t>-29,66; -8,55</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-34,84%</t>
+          <t>-48,77%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-17,97%</t>
+          <t>-12,5%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-26,86%</t>
+          <t>-33,26%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-49,3; -23,99</t>
+          <t>-77,42; -26,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-28,02; -4,76</t>
+          <t>-24,86; 8,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-37,44; -18,68</t>
+          <t>-60,71; -18,66</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-11,27</t>
+          <t>-11,22</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-6,21</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-8,65</t>
+          <t>-8,6</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,84; -4,39</t>
+          <t>-17,79; -4,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,68; -0,34</t>
+          <t>-11,57; -0,2</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,68; -4,1</t>
+          <t>-12,7; -3,99</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-22,32%</t>
+          <t>-22,21%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-14,17%</t>
+          <t>-14,13%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-18,37%</t>
+          <t>-18,27%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-32,83; -9,48</t>
+          <t>-32,73; -9,53</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-24,79; -0,92</t>
+          <t>-24,65; -0,72</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-25,9; -9,6</t>
+          <t>-25,91; -9,61</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-19,2</t>
+          <t>-17,52</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-7,61</t>
+          <t>-7,66</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-11,94</t>
+          <t>-15,11</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-8,95</t>
+          <t>-23,44</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-15,09</t>
+          <t>-16,29</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-8,15</t>
+          <t>-16,73</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-24,7; -13,48</t>
+          <t>-25,16; -9,76</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 6,11</t>
+          <t>-9,06; 6,43</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,18; -2,29</t>
+          <t>-14,26; -0,62</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,17; -6,49</t>
+          <t>-22,65; -7,82</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 8,84</t>
+          <t>-9,43; 4,92</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-22,95; -1,81</t>
+          <t>-40,36; -9,29</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-19,33; -10,89</t>
+          <t>-21,59; -10,8</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 6,18</t>
+          <t>-6,72; 3,73</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-18,59; -3,95</t>
+          <t>-30,32; -7,96</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-44,35%</t>
+          <t>-45,08%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>-2,39%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-17,58%</t>
+          <t>-19,72%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-22,0%</t>
+          <t>-31,53%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>-3,99%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-16,48%</t>
+          <t>-48,9%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-30,43%</t>
+          <t>-37,24%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>-3,5%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-16,44%</t>
+          <t>-38,25%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-53,51; -33,54</t>
+          <t>-58,99; -27,53</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 15,19</t>
+          <t>-20,92; 18,92</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-28,05; -5,37</t>
+          <t>-32,76; -1,69</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-30,6; -12,62</t>
+          <t>-44,63; -17,41</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 16,76</t>
+          <t>-18,13; 11,26</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-40,65; -3,73</t>
+          <t>-81,04; -19,92</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-37,6; -23,42</t>
+          <t>-46,76; -26,55</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 13,01</t>
+          <t>-14,22; 9,01</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-36,41; -8,05</t>
+          <t>-69,79; -18,56</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-18,59</t>
+          <t>-21,94</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-7,25</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-8,45</t>
+          <t>-7,99</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-15,19</t>
+          <t>-9,81</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>7,59</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-7,09</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-16,84</t>
+          <t>-14,59</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-5,27</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-7,61</t>
+          <t>-1,94</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-20,84; -16,34</t>
+          <t>-31,7; -13,1</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,63; -4,87</t>
+          <t>-6,88; 9,96</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-11,22; -5,95</t>
+          <t>-15,62; 0,22</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-17,47; -12,86</t>
+          <t>-17,3; -1,5</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,72; -0,72</t>
+          <t>0,17; 15,6</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-11,15; -4,49</t>
+          <t>-5,13; 9,12</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-18,42; -15,26</t>
+          <t>-20,72; -8,18</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-7,07; -3,6</t>
+          <t>-0,61; 11,2</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-9,67; -5,72</t>
+          <t>-7,26; 2,59</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-45,28%</t>
+          <t>-44,35%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-17,65%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-20,58%</t>
+          <t>-16,15%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-32,92%</t>
+          <t>-16,12%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-7,39%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-15,36%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-38,6%</t>
+          <t>-25,87%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-12,07%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-17,45%</t>
+          <t>-3,43%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-57,69; -29,25</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-12,44; 22,26</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-28,65; 0,53</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-27,18; -2,89</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>0,27; 28,21</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-7,74; 16,3</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-35,23; -15,66</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 21,03</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-12,08; 4,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-18,59</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-7,25</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-10,17</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-15,19</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-3,41</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-8,17</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-16,84</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-5,27</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-9,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-20,84; -16,34</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-9,63; -4,87</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-16,69; -6,92</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-17,47; -12,86</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-5,72; -0,72</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-14,85; -4,57</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-18,42; -15,26</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-7,07; -3,6</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-13,42; -6,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-45,28%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-17,65%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-24,77%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-32,92%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-7,39%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-17,7%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>-38,6%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-12,07%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-20,86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-49,31; -40,96</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-22,76; -12,18</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-26,35; -15,03</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-40,29; -17,03</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-37,11; -28,88</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-12,07; -1,64</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-23,78; -9,94</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-32,08; -10,0</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-41,4; -35,65</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-15,82; -8,36</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-22,3; -13,37</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-31,13; -14,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P34A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,92; -4,27</t>
+          <t>-15,1; -4,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,13; -0,96</t>
+          <t>-12,05; -1,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,64; -2,38</t>
+          <t>-18,71; -3,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,35; -6,77</t>
+          <t>-19,38; -6,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 2,02</t>
+          <t>-10,34; 2,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 3,34</t>
+          <t>-13,43; 3,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,67; -7,19</t>
+          <t>-15,42; -7,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,9; -0,94</t>
+          <t>-9,32; -0,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,24; -3,11</t>
+          <t>-15,11; -3,2</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-52,62; -18,17</t>
+          <t>-52,86; -21,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-42,95; -4,02</t>
+          <t>-43,24; -4,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-64,15; -8,12</t>
+          <t>-68,46; -13,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-42,84; -17,21</t>
+          <t>-43,27; -17,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,68; 5,52</t>
+          <t>-22,57; 7,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,65; 8,83</t>
+          <t>-30,39; 9,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-43,62; -23,12</t>
+          <t>-43,53; -22,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,1; -3,01</t>
+          <t>-26,45; -1,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-43,82; -9,73</t>
+          <t>-42,95; -9,88</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,08; -11,97</t>
+          <t>-21,18; -12,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,23; -3,97</t>
+          <t>-14,85; -4,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 6,58</t>
+          <t>-7,1; 5,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,28; -11,35</t>
+          <t>-22,5; -11,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,21; -2,06</t>
+          <t>-13,52; -1,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,66; -5,35</t>
+          <t>-25,76; -4,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-20,66; -12,91</t>
+          <t>-20,32; -13,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,62; -4,9</t>
+          <t>-12,38; -4,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,74; -1,29</t>
+          <t>-14,6; -1,23</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,33; -35,69</t>
+          <t>-55,29; -36,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-36,94; -11,59</t>
+          <t>-38,1; -14,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,14; 19,42</t>
+          <t>-18,82; 17,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-47,16; -26,27</t>
+          <t>-47,65; -26,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,7; -4,8</t>
+          <t>-28,65; -4,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,5; -12,31</t>
+          <t>-56,22; -10,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,75; -34,2</t>
+          <t>-48,19; -34,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,62; -12,4</t>
+          <t>-29,49; -12,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-35,23; -3,24</t>
+          <t>-35,88; -3,28</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-24,48; -13,59</t>
+          <t>-24,31; -13,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,56; -3,4</t>
+          <t>-14,19; -3,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,54; -3,38</t>
+          <t>-15,59; -4,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,46; -11,43</t>
+          <t>-21,6; -11,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,36; -4,44</t>
+          <t>-15,0; -4,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,15; -0,91</t>
+          <t>-10,92; -0,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-21,45; -14,53</t>
+          <t>-21,38; -14,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-13,36; -5,62</t>
+          <t>-13,29; -5,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,77; -3,99</t>
+          <t>-12,22; -4,11</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-52,05; -32,5</t>
+          <t>-52,13; -33,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,82; -8,02</t>
+          <t>-30,39; -8,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,91; -8,25</t>
+          <t>-33,86; -10,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,85; -26,46</t>
+          <t>-45,51; -26,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,34; -10,68</t>
+          <t>-31,79; -10,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-23,02; -1,87</t>
+          <t>-23,01; -1,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-46,27; -33,76</t>
+          <t>-46,1; -33,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-28,85; -13,03</t>
+          <t>-28,39; -13,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-25,24; -9,29</t>
+          <t>-25,96; -9,57</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-29,7; -17,0</t>
+          <t>-30,39; -18,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,86; -4,55</t>
+          <t>-16,98; -4,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-41,19; -12,41</t>
+          <t>-39,9; -12,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-21,8; -9,59</t>
+          <t>-21,67; -10,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 0,45</t>
+          <t>-12,02; -0,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 3,44</t>
+          <t>-11,3; 4,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-24,38; -16,29</t>
+          <t>-24,15; -16,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,68; -4,28</t>
+          <t>-12,72; -3,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-29,66; -8,55</t>
+          <t>-29,06; -8,32</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-57,08; -37,43</t>
+          <t>-57,85; -40,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-32,01; -9,65</t>
+          <t>-32,41; -10,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-77,42; -26,08</t>
+          <t>-78,52; -25,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-45,85; -23,01</t>
+          <t>-46,27; -25,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,22; 0,84</t>
+          <t>-25,46; -1,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-24,86; 8,72</t>
+          <t>-24,05; 10,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-49,96; -36,36</t>
+          <t>-49,39; -35,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-25,93; -9,89</t>
+          <t>-25,63; -8,43</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-60,71; -18,66</t>
+          <t>-60,6; -18,38</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-32,12; -18,97</t>
+          <t>-31,91; -19,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-21,5; -7,58</t>
+          <t>-21,35; -7,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,79; -4,4</t>
+          <t>-17,78; -5,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-24,96; -11,85</t>
+          <t>-24,49; -11,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 9,4</t>
+          <t>-4,86; 9,38</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,57; -0,2</t>
+          <t>-11,9; -0,6</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-26,74; -17,1</t>
+          <t>-26,51; -17,43</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,63; -1,01</t>
+          <t>-10,77; -1,38</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,7; -3,99</t>
+          <t>-13,05; -4,11</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-60,17; -40,74</t>
+          <t>-59,99; -40,31</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-40,26; -16,05</t>
+          <t>-39,43; -16,82</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-32,73; -9,53</t>
+          <t>-32,47; -11,15</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-52,98; -29,42</t>
+          <t>-52,44; -28,3</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 24,04</t>
+          <t>-10,03; 23,48</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-24,65; -0,72</t>
+          <t>-25,32; -1,5</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-54,22; -38,47</t>
+          <t>-53,7; -38,73</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-21,74; -2,37</t>
+          <t>-21,74; -3,04</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-25,91; -9,61</t>
+          <t>-25,83; -9,17</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-25,16; -9,76</t>
+          <t>-25,15; -10,28</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 6,43</t>
+          <t>-8,49; 7,28</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-14,26; -0,62</t>
+          <t>-14,25; -1,24</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-22,65; -7,82</t>
+          <t>-21,99; -7,82</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 4,92</t>
+          <t>-9,47; 5,16</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-40,36; -9,29</t>
+          <t>-39,12; -8,7</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-21,59; -10,8</t>
+          <t>-22,06; -10,91</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 3,73</t>
+          <t>-7,01; 3,84</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-30,32; -7,96</t>
+          <t>-31,14; -8,11</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-58,99; -27,53</t>
+          <t>-58,22; -28,45</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-20,92; 18,92</t>
+          <t>-19,76; 20,39</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-32,76; -1,69</t>
+          <t>-33,17; -3,07</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-44,63; -17,41</t>
+          <t>-42,82; -17,36</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 11,26</t>
+          <t>-18,64; 11,76</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-81,04; -19,92</t>
+          <t>-78,69; -19,06</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-46,76; -26,55</t>
+          <t>-47,53; -26,37</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-14,22; 9,01</t>
+          <t>-14,94; 9,42</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-69,79; -18,56</t>
+          <t>-70,59; -19,03</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-31,7; -13,1</t>
+          <t>-31,04; -12,56</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 9,96</t>
+          <t>-6,81; 10,64</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 0,22</t>
+          <t>-15,57; 0,64</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-17,3; -1,5</t>
+          <t>-18,0; -1,8</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,17; 15,6</t>
+          <t>0,55; 16,45</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 9,12</t>
+          <t>-4,42; 8,99</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-20,72; -8,18</t>
+          <t>-20,96; -9,19</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 11,2</t>
+          <t>-0,55; 11,0</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 2,59</t>
+          <t>-6,67; 3,8</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-57,69; -29,25</t>
+          <t>-57,12; -27,54</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 22,26</t>
+          <t>-12,3; 25,16</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-28,65; 0,53</t>
+          <t>-28,68; 1,6</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-27,18; -2,89</t>
+          <t>-27,4; -2,83</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,27; 28,21</t>
+          <t>0,86; 29,43</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 16,3</t>
+          <t>-6,6; 16,14</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-35,23; -15,66</t>
+          <t>-34,77; -16,91</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 21,03</t>
+          <t>-0,91; 20,41</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 4,77</t>
+          <t>-11,15; 7,27</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-20,84; -16,34</t>
+          <t>-20,97; -16,22</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-9,63; -4,87</t>
+          <t>-9,66; -4,69</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-16,69; -6,92</t>
+          <t>-17,78; -6,9</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-17,47; -12,86</t>
+          <t>-17,36; -12,67</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-5,72; -0,72</t>
+          <t>-5,96; -1,31</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-14,85; -4,57</t>
+          <t>-15,27; -4,63</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-18,42; -15,26</t>
+          <t>-18,5; -15,23</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-7,07; -3,6</t>
+          <t>-7,09; -3,61</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-13,42; -6,39</t>
+          <t>-13,63; -6,28</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-49,31; -40,96</t>
+          <t>-49,51; -40,56</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-22,76; -12,18</t>
+          <t>-22,79; -11,68</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-40,29; -17,03</t>
+          <t>-42,37; -16,96</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-37,11; -28,88</t>
+          <t>-36,76; -28,18</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-12,07; -1,64</t>
+          <t>-12,5; -2,98</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-32,08; -10,0</t>
+          <t>-32,97; -10,28</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-41,4; -35,65</t>
+          <t>-41,64; -35,53</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-15,82; -8,36</t>
+          <t>-16,06; -8,55</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-31,13; -14,95</t>
+          <t>-31,22; -14,41</t>
         </is>
       </c>
     </row>
